--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.78482322067273</v>
+        <v>3.002483333333333</v>
       </c>
       <c r="H2">
-        <v>2.78482322067273</v>
+        <v>9.007449999999999</v>
       </c>
       <c r="I2">
-        <v>0.1156694151780632</v>
+        <v>0.1222246438870418</v>
       </c>
       <c r="J2">
-        <v>0.1156694151780632</v>
+        <v>0.1222246438870418</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.99601526910784</v>
+        <v>9.918807333333334</v>
       </c>
       <c r="N2">
-        <v>8.99601526910784</v>
+        <v>29.756422</v>
       </c>
       <c r="O2">
-        <v>0.3508351561517068</v>
+        <v>0.3718576623636295</v>
       </c>
       <c r="P2">
-        <v>0.3508351561517068</v>
+        <v>0.3718576623636295</v>
       </c>
       <c r="Q2">
-        <v>25.05231221493795</v>
+        <v>29.78105370487777</v>
       </c>
       <c r="R2">
-        <v>25.05231221493795</v>
+        <v>268.0294833439</v>
       </c>
       <c r="S2">
-        <v>0.04058089733597241</v>
+        <v>0.04545017035906244</v>
       </c>
       <c r="T2">
-        <v>0.04058089733597241</v>
+        <v>0.04545017035906244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.78482322067273</v>
+        <v>3.002483333333333</v>
       </c>
       <c r="H3">
-        <v>2.78482322067273</v>
+        <v>9.007449999999999</v>
       </c>
       <c r="I3">
-        <v>0.1156694151780632</v>
+        <v>0.1222246438870418</v>
       </c>
       <c r="J3">
-        <v>0.1156694151780632</v>
+        <v>0.1222246438870418</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.176279869353751</v>
+        <v>9.278342666666667</v>
       </c>
       <c r="N3">
-        <v>9.176279869353751</v>
+        <v>27.835028</v>
       </c>
       <c r="O3">
-        <v>0.3578652864131655</v>
+        <v>0.3478465402831757</v>
       </c>
       <c r="P3">
-        <v>0.3578652864131655</v>
+        <v>0.3478465402831757</v>
       </c>
       <c r="Q3">
-        <v>25.55431725956805</v>
+        <v>27.85806921762222</v>
       </c>
       <c r="R3">
-        <v>25.55431725956805</v>
+        <v>250.7226229586</v>
       </c>
       <c r="S3">
-        <v>0.04139406839194094</v>
+        <v>0.04251541951345068</v>
       </c>
       <c r="T3">
-        <v>0.04139406839194094</v>
+        <v>0.04251541951345068</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.78482322067273</v>
+        <v>3.002483333333333</v>
       </c>
       <c r="H4">
-        <v>2.78482322067273</v>
+        <v>9.007449999999999</v>
       </c>
       <c r="I4">
-        <v>0.1156694151780632</v>
+        <v>0.1222246438870418</v>
       </c>
       <c r="J4">
-        <v>0.1156694151780632</v>
+        <v>0.1222246438870418</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.46942038339397</v>
+        <v>7.476516666666666</v>
       </c>
       <c r="N4">
-        <v>7.46942038339397</v>
+        <v>22.42955</v>
       </c>
       <c r="O4">
-        <v>0.2912995574351277</v>
+        <v>0.2802957973531948</v>
       </c>
       <c r="P4">
-        <v>0.2912995574351277</v>
+        <v>0.2802957973531948</v>
       </c>
       <c r="Q4">
-        <v>20.80101532864174</v>
+        <v>22.44811668305555</v>
       </c>
       <c r="R4">
-        <v>20.80101532864174</v>
+        <v>202.0330501474999</v>
       </c>
       <c r="S4">
-        <v>0.03369444945014986</v>
+        <v>0.03425905401452865</v>
       </c>
       <c r="T4">
-        <v>0.03369444945014986</v>
+        <v>0.03425905401452865</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.7118523465548</v>
+        <v>11.971037</v>
       </c>
       <c r="H5">
-        <v>11.7118523465548</v>
+        <v>35.913111</v>
       </c>
       <c r="I5">
-        <v>0.4864592845683631</v>
+        <v>0.4873151894099666</v>
       </c>
       <c r="J5">
-        <v>0.4864592845683631</v>
+        <v>0.4873151894099665</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.99601526910784</v>
+        <v>9.918807333333334</v>
       </c>
       <c r="N5">
-        <v>8.99601526910784</v>
+        <v>29.756422</v>
       </c>
       <c r="O5">
-        <v>0.3508351561517068</v>
+        <v>0.3718576623636295</v>
       </c>
       <c r="P5">
-        <v>0.3508351561517068</v>
+        <v>0.3718576623636295</v>
       </c>
       <c r="Q5">
-        <v>105.3600025391435</v>
+        <v>118.7384095832047</v>
       </c>
       <c r="R5">
-        <v>105.3600025391435</v>
+        <v>1068.645686248842</v>
       </c>
       <c r="S5">
-        <v>0.1706670190629892</v>
+        <v>0.1812118871682795</v>
       </c>
       <c r="T5">
-        <v>0.1706670190629892</v>
+        <v>0.1812118871682795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.7118523465548</v>
+        <v>11.971037</v>
       </c>
       <c r="H6">
-        <v>11.7118523465548</v>
+        <v>35.913111</v>
       </c>
       <c r="I6">
-        <v>0.4864592845683631</v>
+        <v>0.4873151894099666</v>
       </c>
       <c r="J6">
-        <v>0.4864592845683631</v>
+        <v>0.4873151894099665</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.176279869353751</v>
+        <v>9.278342666666667</v>
       </c>
       <c r="N6">
-        <v>9.176279869353751</v>
+        <v>27.835028</v>
       </c>
       <c r="O6">
-        <v>0.3578652864131655</v>
+        <v>0.3478465402831757</v>
       </c>
       <c r="P6">
-        <v>0.3578652864131655</v>
+        <v>0.3478465402831757</v>
       </c>
       <c r="Q6">
-        <v>107.4712349205343</v>
+        <v>111.0713833613453</v>
       </c>
       <c r="R6">
-        <v>107.4712349205343</v>
+        <v>999.642450252108</v>
       </c>
       <c r="S6">
-        <v>0.1740868912004008</v>
+        <v>0.1695109026636973</v>
       </c>
       <c r="T6">
-        <v>0.1740868912004008</v>
+        <v>0.1695109026636973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.7118523465548</v>
+        <v>11.971037</v>
       </c>
       <c r="H7">
-        <v>11.7118523465548</v>
+        <v>35.913111</v>
       </c>
       <c r="I7">
-        <v>0.4864592845683631</v>
+        <v>0.4873151894099666</v>
       </c>
       <c r="J7">
-        <v>0.4864592845683631</v>
+        <v>0.4873151894099665</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.46942038339397</v>
+        <v>7.476516666666666</v>
       </c>
       <c r="N7">
-        <v>7.46942038339397</v>
+        <v>22.42955</v>
       </c>
       <c r="O7">
-        <v>0.2912995574351277</v>
+        <v>0.2802957973531948</v>
       </c>
       <c r="P7">
-        <v>0.2912995574351277</v>
+        <v>0.2802957973531948</v>
       </c>
       <c r="Q7">
-        <v>87.48074864465693</v>
+        <v>89.50165764778333</v>
       </c>
       <c r="R7">
-        <v>87.48074864465693</v>
+        <v>805.51491883005</v>
       </c>
       <c r="S7">
-        <v>0.141705374304973</v>
+        <v>0.1365923995779897</v>
       </c>
       <c r="T7">
-        <v>0.141705374304973</v>
+        <v>0.1365923995779897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.579033784166111</v>
+        <v>9.591765666666666</v>
       </c>
       <c r="H8">
-        <v>9.579033784166111</v>
+        <v>28.775297</v>
       </c>
       <c r="I8">
-        <v>0.3978713002535736</v>
+        <v>0.3904601667029916</v>
       </c>
       <c r="J8">
-        <v>0.3978713002535736</v>
+        <v>0.3904601667029916</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.99601526910784</v>
+        <v>9.918807333333334</v>
       </c>
       <c r="N8">
-        <v>8.99601526910784</v>
+        <v>29.756422</v>
       </c>
       <c r="O8">
-        <v>0.3508351561517068</v>
+        <v>0.3718576623636295</v>
       </c>
       <c r="P8">
-        <v>0.3508351561517068</v>
+        <v>0.3718576623636295</v>
       </c>
       <c r="Q8">
-        <v>86.17313418565818</v>
+        <v>95.13887563414821</v>
       </c>
       <c r="R8">
-        <v>86.17313418565818</v>
+        <v>856.249880707334</v>
       </c>
       <c r="S8">
-        <v>0.1395872397527451</v>
+        <v>0.1451956048362876</v>
       </c>
       <c r="T8">
-        <v>0.1395872397527451</v>
+        <v>0.1451956048362876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.579033784166111</v>
+        <v>9.591765666666666</v>
       </c>
       <c r="H9">
-        <v>9.579033784166111</v>
+        <v>28.775297</v>
       </c>
       <c r="I9">
-        <v>0.3978713002535736</v>
+        <v>0.3904601667029916</v>
       </c>
       <c r="J9">
-        <v>0.3978713002535736</v>
+        <v>0.3904601667029916</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.176279869353751</v>
+        <v>9.278342666666667</v>
       </c>
       <c r="N9">
-        <v>9.176279869353751</v>
+        <v>27.835028</v>
       </c>
       <c r="O9">
-        <v>0.3578652864131655</v>
+        <v>0.3478465402831757</v>
       </c>
       <c r="P9">
-        <v>0.3578652864131655</v>
+        <v>0.3478465402831757</v>
       </c>
       <c r="Q9">
-        <v>87.89989488150296</v>
+        <v>88.99568863370177</v>
       </c>
       <c r="R9">
-        <v>87.89989488150296</v>
+        <v>800.961197703316</v>
       </c>
       <c r="S9">
-        <v>0.1423843268208237</v>
+        <v>0.1358202181060277</v>
       </c>
       <c r="T9">
-        <v>0.1423843268208237</v>
+        <v>0.1358202181060277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.579033784166111</v>
+        <v>9.591765666666666</v>
       </c>
       <c r="H10">
-        <v>9.579033784166111</v>
+        <v>28.775297</v>
       </c>
       <c r="I10">
-        <v>0.3978713002535736</v>
+        <v>0.3904601667029916</v>
       </c>
       <c r="J10">
-        <v>0.3978713002535736</v>
+        <v>0.3904601667029916</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.46942038339397</v>
+        <v>7.476516666666666</v>
       </c>
       <c r="N10">
-        <v>7.46942038339397</v>
+        <v>22.42955</v>
       </c>
       <c r="O10">
-        <v>0.2912995574351277</v>
+        <v>0.2802957973531948</v>
       </c>
       <c r="P10">
-        <v>0.2912995574351277</v>
+        <v>0.2802957973531948</v>
       </c>
       <c r="Q10">
-        <v>71.54983020066983</v>
+        <v>71.71299586959444</v>
       </c>
       <c r="R10">
-        <v>71.54983020066983</v>
+        <v>645.41696282635</v>
       </c>
       <c r="S10">
-        <v>0.1158997336800048</v>
+        <v>0.1094443437606764</v>
       </c>
       <c r="T10">
-        <v>0.1158997336800048</v>
+        <v>0.1094443437606764</v>
       </c>
     </row>
   </sheetData>
